--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -21,14 +21,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,8 +90,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,112 +222,507 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>565</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>234</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>4564</v>
+      <c r="A10" s="1" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>545</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>998</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
